--- a/data/output/FV2304_FV2210/UTILMD/11104.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11104.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4588" uniqueCount="337">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4609" uniqueCount="337">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1140,6 +1140,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U215" totalsRowShown="0">
+  <autoFilter ref="A1:U215"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1429,7 +1459,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11313,5 +11346,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11104.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11104.xlsx
@@ -2181,7 +2181,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4263,7 +4263,7 @@
         <v>313</v>
       </c>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4467,7 +4467,7 @@
         <v>314</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4671,7 +4671,7 @@
         <v>315</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4875,7 +4875,7 @@
         <v>315</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5079,7 +5079,7 @@
         <v>316</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5283,7 +5283,7 @@
         <v>317</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5545,7 +5545,7 @@
         <v>315</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5751,7 +5751,7 @@
         <v>318</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6131,7 +6131,7 @@
         <v>320</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6419,7 +6419,7 @@
         <v>321</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6777,7 +6777,7 @@
         <v>324</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7023,7 +7023,7 @@
         <v>326</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7737,7 +7737,7 @@
         <v>328</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7925,7 +7925,7 @@
         <v>329</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8209,7 +8209,7 @@
         <v>328</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8645,7 +8645,7 @@
         <v>330</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8797,7 +8797,7 @@
         <v>331</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9097,7 +9097,7 @@
         <v>332</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9675,7 +9675,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10077,7 +10077,7 @@
         <v>334</v>
       </c>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -10703,7 +10703,7 @@
         <v>336</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11215,7 +11215,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -11951,7 +11951,7 @@
         <v>337</v>
       </c>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N213" s="2"/>
